--- a/NRI_STLF_Data/WeatherData/T_mashhad/T_mashhad94.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_mashhad/T_mashhad94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.7.6\WeatherData\T_mashhad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
   <si>
     <t>Rain-Thunderstorm</t>
   </si>
@@ -51,12 +56,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -144,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA388"/>
+  <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="F366" sqref="F366:AC388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>94</v>
       </c>
@@ -473,7 +478,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>94</v>
       </c>
@@ -550,7 +555,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>94</v>
       </c>
@@ -630,7 +635,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>94</v>
       </c>
@@ -707,7 +712,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>94</v>
       </c>
@@ -784,7 +789,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>94</v>
       </c>
@@ -861,7 +866,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>94</v>
       </c>
@@ -941,7 +946,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>94</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>94</v>
       </c>
@@ -1095,7 +1100,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1172,7 +1177,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>94</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>94</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>94</v>
       </c>
@@ -1483,7 +1488,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>94</v>
       </c>
@@ -1563,7 +1568,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>94</v>
       </c>
@@ -1643,7 +1648,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>94</v>
       </c>
@@ -1720,7 +1725,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>94</v>
       </c>
@@ -1797,7 +1802,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>94</v>
       </c>
@@ -1871,7 +1876,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>94</v>
       </c>
@@ -1948,7 +1953,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>94</v>
       </c>
@@ -2022,7 +2027,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>94</v>
       </c>
@@ -2099,7 +2104,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>94</v>
       </c>
@@ -2176,7 +2181,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>94</v>
       </c>
@@ -2253,7 +2258,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>94</v>
       </c>
@@ -2330,7 +2335,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>94</v>
       </c>
@@ -2407,7 +2412,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>94</v>
       </c>
@@ -2487,7 +2492,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>94</v>
       </c>
@@ -2567,7 +2572,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2647,7 +2652,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>94</v>
       </c>
@@ -2724,7 +2729,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>94</v>
       </c>
@@ -2801,7 +2806,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>94</v>
       </c>
@@ -2881,7 +2886,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2955,7 +2960,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>94</v>
       </c>
@@ -3032,7 +3037,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>94</v>
       </c>
@@ -3109,7 +3114,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>94</v>
       </c>
@@ -3186,7 +3191,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>94</v>
       </c>
@@ -3263,7 +3268,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>94</v>
       </c>
@@ -3337,7 +3342,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>94</v>
       </c>
@@ -3414,7 +3419,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>94</v>
       </c>
@@ -3494,7 +3499,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>94</v>
       </c>
@@ -3571,7 +3576,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>94</v>
       </c>
@@ -3648,7 +3653,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>94</v>
       </c>
@@ -3725,7 +3730,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>94</v>
       </c>
@@ -3802,7 +3807,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>94</v>
       </c>
@@ -3879,7 +3884,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>94</v>
       </c>
@@ -3956,7 +3961,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>94</v>
       </c>
@@ -4036,7 +4041,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>94</v>
       </c>
@@ -4116,7 +4121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>94</v>
       </c>
@@ -4196,7 +4201,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>94</v>
       </c>
@@ -4273,7 +4278,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>94</v>
       </c>
@@ -4353,7 +4358,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4433,7 +4438,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>94</v>
       </c>
@@ -4510,7 +4515,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>94</v>
       </c>
@@ -4587,7 +4592,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>94</v>
       </c>
@@ -4664,7 +4669,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>94</v>
       </c>
@@ -4741,7 +4746,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>94</v>
       </c>
@@ -4818,7 +4823,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>94</v>
       </c>
@@ -4895,7 +4900,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>94</v>
       </c>
@@ -4972,7 +4977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>94</v>
       </c>
@@ -5049,7 +5054,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>94</v>
       </c>
@@ -5129,7 +5134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>94</v>
       </c>
@@ -5212,7 +5217,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>94</v>
       </c>
@@ -5292,7 +5297,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>94</v>
       </c>
@@ -5372,7 +5377,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>94</v>
       </c>
@@ -5449,7 +5454,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>94</v>
       </c>
@@ -5523,7 +5528,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>94</v>
       </c>
@@ -5600,7 +5605,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>94</v>
       </c>
@@ -5677,7 +5682,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>94</v>
       </c>
@@ -5754,7 +5759,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>94</v>
       </c>
@@ -5831,7 +5836,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>94</v>
       </c>
@@ -5908,7 +5913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>94</v>
       </c>
@@ -5985,7 +5990,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>94</v>
       </c>
@@ -6059,7 +6064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>94</v>
       </c>
@@ -6136,7 +6141,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>94</v>
       </c>
@@ -6210,7 +6215,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>94</v>
       </c>
@@ -6284,7 +6289,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>94</v>
       </c>
@@ -6358,7 +6363,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>94</v>
       </c>
@@ -6435,7 +6440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>94</v>
       </c>
@@ -6512,7 +6517,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>94</v>
       </c>
@@ -6589,7 +6594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>94</v>
       </c>
@@ -6666,7 +6671,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>94</v>
       </c>
@@ -6740,7 +6745,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>94</v>
       </c>
@@ -6814,7 +6819,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>94</v>
       </c>
@@ -6891,7 +6896,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>94</v>
       </c>
@@ -6968,7 +6973,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>94</v>
       </c>
@@ -7045,7 +7050,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>94</v>
       </c>
@@ -7119,7 +7124,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>94</v>
       </c>
@@ -7196,7 +7201,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7273,7 +7278,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>94</v>
       </c>
@@ -7350,7 +7355,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>94</v>
       </c>
@@ -7427,7 +7432,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>94</v>
       </c>
@@ -7504,7 +7509,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>94</v>
       </c>
@@ -7581,7 +7586,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7655,7 +7660,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7732,7 +7737,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7809,7 +7814,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7883,7 +7888,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>94</v>
       </c>
@@ -7957,7 +7962,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>94</v>
       </c>
@@ -8034,7 +8039,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>94</v>
       </c>
@@ -8111,7 +8116,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>94</v>
       </c>
@@ -8188,7 +8193,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>94</v>
       </c>
@@ -8262,7 +8267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>94</v>
       </c>
@@ -8336,7 +8341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>94</v>
       </c>
@@ -8410,7 +8415,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>94</v>
       </c>
@@ -8484,7 +8489,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>94</v>
       </c>
@@ -8558,7 +8563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>94</v>
       </c>
@@ -8635,7 +8640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>94</v>
       </c>
@@ -8709,7 +8714,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>94</v>
       </c>
@@ -8783,7 +8788,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>94</v>
       </c>
@@ -8857,7 +8862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>94</v>
       </c>
@@ -8931,7 +8936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>94</v>
       </c>
@@ -9005,7 +9010,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>94</v>
       </c>
@@ -9079,7 +9084,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -9153,7 +9158,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>94</v>
       </c>
@@ -9227,7 +9232,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>94</v>
       </c>
@@ -9304,7 +9309,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>94</v>
       </c>
@@ -9381,7 +9386,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>94</v>
       </c>
@@ -9458,7 +9463,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>94</v>
       </c>
@@ -9535,7 +9540,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>94</v>
       </c>
@@ -9612,7 +9617,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>94</v>
       </c>
@@ -9686,7 +9691,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>94</v>
       </c>
@@ -9763,7 +9768,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>94</v>
       </c>
@@ -9840,7 +9845,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>94</v>
       </c>
@@ -9917,7 +9922,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>94</v>
       </c>
@@ -9991,7 +9996,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>94</v>
       </c>
@@ -10065,7 +10070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>94</v>
       </c>
@@ -10139,7 +10144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>94</v>
       </c>
@@ -10216,7 +10221,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>94</v>
       </c>
@@ -10293,7 +10298,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>94</v>
       </c>
@@ -10370,7 +10375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>94</v>
       </c>
@@ -10447,7 +10452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>94</v>
       </c>
@@ -10524,7 +10529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>94</v>
       </c>
@@ -10601,7 +10606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>94</v>
       </c>
@@ -10678,7 +10683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>94</v>
       </c>
@@ -10755,7 +10760,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>94</v>
       </c>
@@ -10829,7 +10834,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>94</v>
       </c>
@@ -10906,7 +10911,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>94</v>
       </c>
@@ -10983,7 +10988,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>94</v>
       </c>
@@ -11060,7 +11065,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>94</v>
       </c>
@@ -11137,7 +11142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>94</v>
       </c>
@@ -11211,7 +11216,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>94</v>
       </c>
@@ -11288,7 +11293,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>94</v>
       </c>
@@ -11362,7 +11367,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>94</v>
       </c>
@@ -11436,7 +11441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>94</v>
       </c>
@@ -11510,7 +11515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>94</v>
       </c>
@@ -11584,7 +11589,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>94</v>
       </c>
@@ -11658,7 +11663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>94</v>
       </c>
@@ -11732,7 +11737,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>94</v>
       </c>
@@ -11806,7 +11811,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>94</v>
       </c>
@@ -11880,7 +11885,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>94</v>
       </c>
@@ -11954,7 +11959,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>94</v>
       </c>
@@ -12028,7 +12033,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>94</v>
       </c>
@@ -12102,7 +12107,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>94</v>
       </c>
@@ -12179,7 +12184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>94</v>
       </c>
@@ -12256,7 +12261,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>94</v>
       </c>
@@ -12336,7 +12341,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>94</v>
       </c>
@@ -12413,7 +12418,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>94</v>
       </c>
@@ -12490,7 +12495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>94</v>
       </c>
@@ -12567,7 +12572,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>94</v>
       </c>
@@ -12644,7 +12649,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>94</v>
       </c>
@@ -12721,7 +12726,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>94</v>
       </c>
@@ -12798,7 +12803,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>94</v>
       </c>
@@ -12872,7 +12877,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>94</v>
       </c>
@@ -12949,7 +12954,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>94</v>
       </c>
@@ -13026,7 +13031,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>94</v>
       </c>
@@ -13103,7 +13108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>94</v>
       </c>
@@ -13177,7 +13182,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>94</v>
       </c>
@@ -13254,7 +13259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>94</v>
       </c>
@@ -13328,7 +13333,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>94</v>
       </c>
@@ -13405,7 +13410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>94</v>
       </c>
@@ -13479,7 +13484,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>94</v>
       </c>
@@ -13553,7 +13558,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>94</v>
       </c>
@@ -13627,7 +13632,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>94</v>
       </c>
@@ -13701,7 +13706,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>94</v>
       </c>
@@ -13775,7 +13780,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>94</v>
       </c>
@@ -13852,7 +13857,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>94</v>
       </c>
@@ -13929,7 +13934,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>94</v>
       </c>
@@ -14003,7 +14008,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>94</v>
       </c>
@@ -14077,7 +14082,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>94</v>
       </c>
@@ -14154,7 +14159,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>94</v>
       </c>
@@ -14231,7 +14236,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>94</v>
       </c>
@@ -14311,7 +14316,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>94</v>
       </c>
@@ -14388,7 +14393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>94</v>
       </c>
@@ -14465,7 +14470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>94</v>
       </c>
@@ -14539,7 +14544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>94</v>
       </c>
@@ -14613,7 +14618,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>94</v>
       </c>
@@ -14687,7 +14692,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>94</v>
       </c>
@@ -14761,7 +14766,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>94</v>
       </c>
@@ -14835,7 +14840,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>94</v>
       </c>
@@ -14909,7 +14914,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>94</v>
       </c>
@@ -14983,7 +14988,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>94</v>
       </c>
@@ -15060,7 +15065,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>94</v>
       </c>
@@ -15137,7 +15142,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>94</v>
       </c>
@@ -15214,7 +15219,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>94</v>
       </c>
@@ -15291,7 +15296,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>94</v>
       </c>
@@ -15368,7 +15373,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>94</v>
       </c>
@@ -15445,7 +15450,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>94</v>
       </c>
@@ -15525,7 +15530,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>94</v>
       </c>
@@ -15602,7 +15607,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>94</v>
       </c>
@@ -15679,7 +15684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>94</v>
       </c>
@@ -15756,7 +15761,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>94</v>
       </c>
@@ -15833,7 +15838,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>94</v>
       </c>
@@ -15910,7 +15915,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>94</v>
       </c>
@@ -15987,7 +15992,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>94</v>
       </c>
@@ -16064,7 +16069,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>94</v>
       </c>
@@ -16141,7 +16146,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>94</v>
       </c>
@@ -16215,7 +16220,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>94</v>
       </c>
@@ -16289,7 +16294,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>94</v>
       </c>
@@ -16366,7 +16371,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>94</v>
       </c>
@@ -16446,7 +16451,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>94</v>
       </c>
@@ -16526,7 +16531,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>94</v>
       </c>
@@ -16606,7 +16611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>94</v>
       </c>
@@ -16683,7 +16688,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>94</v>
       </c>
@@ -16760,7 +16765,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>94</v>
       </c>
@@ -16840,7 +16845,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>94</v>
       </c>
@@ -16914,7 +16919,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>94</v>
       </c>
@@ -16991,7 +16996,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>94</v>
       </c>
@@ -17068,7 +17073,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>94</v>
       </c>
@@ -17142,7 +17147,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>94</v>
       </c>
@@ -17216,7 +17221,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>94</v>
       </c>
@@ -17290,7 +17295,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>94</v>
       </c>
@@ -17364,7 +17369,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>94</v>
       </c>
@@ -17441,7 +17446,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>94</v>
       </c>
@@ -17518,7 +17523,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>94</v>
       </c>
@@ -17598,7 +17603,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>94</v>
       </c>
@@ -17678,7 +17683,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>94</v>
       </c>
@@ -17758,7 +17763,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>94</v>
       </c>
@@ -17835,7 +17840,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>94</v>
       </c>
@@ -17915,7 +17920,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>94</v>
       </c>
@@ -17989,7 +17994,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>94</v>
       </c>
@@ -18066,7 +18071,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>94</v>
       </c>
@@ -18143,7 +18148,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>94</v>
       </c>
@@ -18220,7 +18225,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>94</v>
       </c>
@@ -18297,7 +18302,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>94</v>
       </c>
@@ -18374,7 +18379,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>94</v>
       </c>
@@ -18454,7 +18459,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>94</v>
       </c>
@@ -18537,7 +18542,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>94</v>
       </c>
@@ -18614,7 +18619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>94</v>
       </c>
@@ -18694,7 +18699,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>94</v>
       </c>
@@ -18771,7 +18776,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>94</v>
       </c>
@@ -18845,7 +18850,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>94</v>
       </c>
@@ -18922,7 +18927,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>94</v>
       </c>
@@ -18999,7 +19004,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>94</v>
       </c>
@@ -19076,7 +19081,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>94</v>
       </c>
@@ -19156,7 +19161,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>94</v>
       </c>
@@ -19236,7 +19241,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>94</v>
       </c>
@@ -19316,7 +19321,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>94</v>
       </c>
@@ -19396,7 +19401,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>94</v>
       </c>
@@ -19473,7 +19478,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>94</v>
       </c>
@@ -19553,7 +19558,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>94</v>
       </c>
@@ -19627,7 +19632,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>94</v>
       </c>
@@ -19704,7 +19709,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>94</v>
       </c>
@@ -19781,7 +19786,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>94</v>
       </c>
@@ -19861,7 +19866,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>94</v>
       </c>
@@ -19938,7 +19943,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>94</v>
       </c>
@@ -20012,7 +20017,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>94</v>
       </c>
@@ -20086,7 +20091,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>94</v>
       </c>
@@ -20163,7 +20168,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>94</v>
       </c>
@@ -20243,7 +20248,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>94</v>
       </c>
@@ -20320,7 +20325,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>94</v>
       </c>
@@ -20397,7 +20402,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>94</v>
       </c>
@@ -20477,7 +20482,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>94</v>
       </c>
@@ -20557,7 +20562,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>94</v>
       </c>
@@ -20634,7 +20639,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>94</v>
       </c>
@@ -20711,7 +20716,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>94</v>
       </c>
@@ -20788,7 +20793,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>94</v>
       </c>
@@ -20862,7 +20867,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>94</v>
       </c>
@@ -20936,7 +20941,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>94</v>
       </c>
@@ -21010,7 +21015,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>94</v>
       </c>
@@ -21090,7 +21095,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>94</v>
       </c>
@@ -21170,7 +21175,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>94</v>
       </c>
@@ -21250,7 +21255,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>94</v>
       </c>
@@ -21327,7 +21332,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>94</v>
       </c>
@@ -21407,7 +21412,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>94</v>
       </c>
@@ -21484,7 +21489,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>94</v>
       </c>
@@ -21561,7 +21566,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>94</v>
       </c>
@@ -21638,7 +21643,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>94</v>
       </c>
@@ -21715,7 +21720,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>94</v>
       </c>
@@ -21792,7 +21797,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>94</v>
       </c>
@@ -21869,7 +21874,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>94</v>
       </c>
@@ -21946,7 +21951,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>94</v>
       </c>
@@ -22023,7 +22028,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>94</v>
       </c>
@@ -22097,7 +22102,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>94</v>
       </c>
@@ -22171,7 +22176,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>94</v>
       </c>
@@ -22248,7 +22253,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>94</v>
       </c>
@@ -22325,7 +22330,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>94</v>
       </c>
@@ -22402,7 +22407,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>94</v>
       </c>
@@ -22482,7 +22487,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>94</v>
       </c>
@@ -22562,7 +22567,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>94</v>
       </c>
@@ -22642,7 +22647,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>94</v>
       </c>
@@ -22716,7 +22721,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>94</v>
       </c>
@@ -22793,7 +22798,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>94</v>
       </c>
@@ -22873,7 +22878,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>94</v>
       </c>
@@ -22950,7 +22955,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>94</v>
       </c>
@@ -23027,7 +23032,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>94</v>
       </c>
@@ -23107,7 +23112,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>94</v>
       </c>
@@ -23184,7 +23189,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>94</v>
       </c>
@@ -23258,7 +23263,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>94</v>
       </c>
@@ -23335,7 +23340,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>94</v>
       </c>
@@ -23409,7 +23414,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>94</v>
       </c>
@@ -23483,7 +23488,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>94</v>
       </c>
@@ -23560,7 +23565,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>94</v>
       </c>
@@ -23640,7 +23645,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>94</v>
       </c>
@@ -23714,7 +23719,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>94</v>
       </c>
@@ -23788,7 +23793,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>94</v>
       </c>
@@ -23862,7 +23867,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>94</v>
       </c>
@@ -23936,7 +23941,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>94</v>
       </c>
@@ -24010,7 +24015,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>94</v>
       </c>
@@ -24084,7 +24089,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>94</v>
       </c>
@@ -24161,7 +24166,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>94</v>
       </c>
@@ -24241,7 +24246,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>94</v>
       </c>
@@ -24321,7 +24326,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>94</v>
       </c>
@@ -24401,7 +24406,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>94</v>
       </c>
@@ -24481,7 +24486,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>94</v>
       </c>
@@ -24561,7 +24566,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>94</v>
       </c>
@@ -24638,7 +24643,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>94</v>
       </c>
@@ -24715,7 +24720,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>94</v>
       </c>
@@ -24789,7 +24794,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>94</v>
       </c>
@@ -24863,7 +24868,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>94</v>
       </c>
@@ -24940,7 +24945,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>94</v>
       </c>
@@ -25017,7 +25022,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>94</v>
       </c>
@@ -25091,7 +25096,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>94</v>
       </c>
@@ -25165,7 +25170,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>94</v>
       </c>
@@ -25242,7 +25247,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>94</v>
       </c>
@@ -25322,7 +25327,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>94</v>
       </c>
@@ -25402,7 +25407,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>94</v>
       </c>
@@ -25482,7 +25487,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>94</v>
       </c>
@@ -25559,7 +25564,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>94</v>
       </c>
@@ -25636,7 +25641,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>94</v>
       </c>
@@ -25713,7 +25718,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>94</v>
       </c>
@@ -25787,7 +25792,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>94</v>
       </c>
@@ -25861,7 +25866,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>94</v>
       </c>
@@ -25938,7 +25943,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>94</v>
       </c>
@@ -26015,7 +26020,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>94</v>
       </c>
@@ -26092,7 +26097,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>94</v>
       </c>
@@ -26169,7 +26174,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>94</v>
       </c>
@@ -26246,7 +26251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>94</v>
       </c>
@@ -26323,7 +26328,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>94</v>
       </c>
@@ -26397,7 +26402,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>94</v>
       </c>
@@ -26471,7 +26476,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>94</v>
       </c>
@@ -26548,7 +26553,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>94</v>
       </c>
@@ -26625,7 +26630,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>94</v>
       </c>
@@ -26699,7 +26704,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>94</v>
       </c>
@@ -26773,7 +26778,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>94</v>
       </c>
@@ -26847,7 +26852,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>94</v>
       </c>
@@ -26927,7 +26932,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>94</v>
       </c>
@@ -27007,7 +27012,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>94</v>
       </c>
@@ -27084,7 +27089,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>94</v>
       </c>
@@ -27161,7 +27166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>94</v>
       </c>
@@ -27235,7 +27240,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>94</v>
       </c>
@@ -27309,7 +27314,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>94</v>
       </c>
@@ -27386,7 +27391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>94</v>
       </c>
@@ -27466,7 +27471,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>94</v>
       </c>
@@ -27546,7 +27551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>94</v>
       </c>
@@ -27626,7 +27631,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>94</v>
       </c>
@@ -27703,7 +27708,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>94</v>
       </c>
@@ -27780,7 +27785,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>94</v>
       </c>
@@ -27860,7 +27865,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>94</v>
       </c>
@@ -27940,7 +27945,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>94</v>
       </c>
@@ -28020,7 +28025,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>94</v>
       </c>
@@ -28103,7 +28108,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>94</v>
       </c>
@@ -28183,7 +28188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>94</v>
       </c>
@@ -28263,7 +28268,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>94</v>
       </c>
@@ -28343,7 +28348,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>94</v>
       </c>
@@ -28418,1468 +28423,6 @@
       </c>
       <c r="AA365">
         <v>77</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F366">
-        <v>18</v>
-      </c>
-      <c r="G366">
-        <v>10</v>
-      </c>
-      <c r="H366">
-        <v>2</v>
-      </c>
-      <c r="I366">
-        <v>4</v>
-      </c>
-      <c r="J366">
-        <v>-1</v>
-      </c>
-      <c r="K366">
-        <v>-8</v>
-      </c>
-      <c r="L366">
-        <v>93</v>
-      </c>
-      <c r="M366">
-        <v>47</v>
-      </c>
-      <c r="N366">
-        <v>11</v>
-      </c>
-      <c r="O366">
-        <v>1015</v>
-      </c>
-      <c r="P366">
-        <v>1014</v>
-      </c>
-      <c r="Q366">
-        <v>1013</v>
-      </c>
-      <c r="R366">
-        <v>26</v>
-      </c>
-      <c r="S366">
-        <v>9</v>
-      </c>
-      <c r="T366">
-        <v>6</v>
-      </c>
-      <c r="U366">
-        <v>23</v>
-      </c>
-      <c r="V366">
-        <v>6</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="AA366">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F367">
-        <v>23</v>
-      </c>
-      <c r="G367">
-        <v>14</v>
-      </c>
-      <c r="H367">
-        <v>6</v>
-      </c>
-      <c r="I367">
-        <v>3</v>
-      </c>
-      <c r="J367">
-        <v>-1</v>
-      </c>
-      <c r="K367">
-        <v>-10</v>
-      </c>
-      <c r="L367">
-        <v>66</v>
-      </c>
-      <c r="M367">
-        <v>40</v>
-      </c>
-      <c r="N367">
-        <v>9</v>
-      </c>
-      <c r="O367">
-        <v>1020</v>
-      </c>
-      <c r="P367">
-        <v>1016</v>
-      </c>
-      <c r="Q367">
-        <v>1011</v>
-      </c>
-      <c r="R367">
-        <v>14</v>
-      </c>
-      <c r="S367">
-        <v>11</v>
-      </c>
-      <c r="T367">
-        <v>10</v>
-      </c>
-      <c r="U367">
-        <v>40</v>
-      </c>
-      <c r="V367">
-        <v>13</v>
-      </c>
-      <c r="X367">
-        <v>0</v>
-      </c>
-      <c r="Y367">
-        <v>5</v>
-      </c>
-      <c r="AA367">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F368">
-        <v>16</v>
-      </c>
-      <c r="G368">
-        <v>11</v>
-      </c>
-      <c r="H368">
-        <v>6</v>
-      </c>
-      <c r="I368">
-        <v>8</v>
-      </c>
-      <c r="J368">
-        <v>4</v>
-      </c>
-      <c r="K368">
-        <v>2</v>
-      </c>
-      <c r="L368">
-        <v>82</v>
-      </c>
-      <c r="M368">
-        <v>61</v>
-      </c>
-      <c r="N368">
-        <v>39</v>
-      </c>
-      <c r="O368">
-        <v>1021</v>
-      </c>
-      <c r="P368">
-        <v>1014</v>
-      </c>
-      <c r="Q368">
-        <v>1009</v>
-      </c>
-      <c r="R368">
-        <v>11</v>
-      </c>
-      <c r="S368">
-        <v>10</v>
-      </c>
-      <c r="T368">
-        <v>7</v>
-      </c>
-      <c r="U368">
-        <v>85</v>
-      </c>
-      <c r="V368">
-        <v>13</v>
-      </c>
-      <c r="X368">
-        <v>0.25</v>
-      </c>
-      <c r="Y368">
-        <v>7</v>
-      </c>
-      <c r="Z368" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA368">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="369" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F369">
-        <v>17</v>
-      </c>
-      <c r="G369">
-        <v>12</v>
-      </c>
-      <c r="H369">
-        <v>6</v>
-      </c>
-      <c r="I369">
-        <v>9</v>
-      </c>
-      <c r="J369">
-        <v>6</v>
-      </c>
-      <c r="K369">
-        <v>1</v>
-      </c>
-      <c r="L369">
-        <v>100</v>
-      </c>
-      <c r="M369">
-        <v>78</v>
-      </c>
-      <c r="N369">
-        <v>23</v>
-      </c>
-      <c r="O369">
-        <v>1016</v>
-      </c>
-      <c r="P369">
-        <v>1012</v>
-      </c>
-      <c r="Q369">
-        <v>1009</v>
-      </c>
-      <c r="R369">
-        <v>10</v>
-      </c>
-      <c r="S369">
-        <v>8</v>
-      </c>
-      <c r="T369">
-        <v>3</v>
-      </c>
-      <c r="U369">
-        <v>34</v>
-      </c>
-      <c r="V369">
-        <v>14</v>
-      </c>
-      <c r="X369">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="Y369">
-        <v>6</v>
-      </c>
-      <c r="Z369" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA369">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="370" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F370">
-        <v>18</v>
-      </c>
-      <c r="G370">
-        <v>12</v>
-      </c>
-      <c r="H370">
-        <v>6</v>
-      </c>
-      <c r="I370">
-        <v>8</v>
-      </c>
-      <c r="J370">
-        <v>1</v>
-      </c>
-      <c r="K370">
-        <v>-10</v>
-      </c>
-      <c r="L370">
-        <v>100</v>
-      </c>
-      <c r="M370">
-        <v>51</v>
-      </c>
-      <c r="N370">
-        <v>10</v>
-      </c>
-      <c r="O370">
-        <v>1022</v>
-      </c>
-      <c r="P370">
-        <v>1018</v>
-      </c>
-      <c r="Q370">
-        <v>1014</v>
-      </c>
-      <c r="R370">
-        <v>19</v>
-      </c>
-      <c r="S370">
-        <v>9</v>
-      </c>
-      <c r="T370">
-        <v>3</v>
-      </c>
-      <c r="U370">
-        <v>29</v>
-      </c>
-      <c r="V370">
-        <v>13</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>4</v>
-      </c>
-      <c r="AA370">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="371" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F371">
-        <v>22</v>
-      </c>
-      <c r="G371">
-        <v>13</v>
-      </c>
-      <c r="H371">
-        <v>5</v>
-      </c>
-      <c r="I371">
-        <v>3</v>
-      </c>
-      <c r="J371">
-        <v>2</v>
-      </c>
-      <c r="K371">
-        <v>-1</v>
-      </c>
-      <c r="L371">
-        <v>81</v>
-      </c>
-      <c r="M371">
-        <v>46</v>
-      </c>
-      <c r="N371">
-        <v>16</v>
-      </c>
-      <c r="O371">
-        <v>1022</v>
-      </c>
-      <c r="P371">
-        <v>1020</v>
-      </c>
-      <c r="Q371">
-        <v>1016</v>
-      </c>
-      <c r="R371">
-        <v>11</v>
-      </c>
-      <c r="S371">
-        <v>10</v>
-      </c>
-      <c r="T371">
-        <v>8</v>
-      </c>
-      <c r="U371">
-        <v>11</v>
-      </c>
-      <c r="V371">
-        <v>6</v>
-      </c>
-      <c r="X371">
-        <v>0</v>
-      </c>
-      <c r="Y371">
-        <v>6</v>
-      </c>
-      <c r="AA371">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="372" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F372">
-        <v>26</v>
-      </c>
-      <c r="G372">
-        <v>17</v>
-      </c>
-      <c r="H372">
-        <v>7</v>
-      </c>
-      <c r="I372">
-        <v>4</v>
-      </c>
-      <c r="J372">
-        <v>1</v>
-      </c>
-      <c r="K372">
-        <v>-4</v>
-      </c>
-      <c r="L372">
-        <v>76</v>
-      </c>
-      <c r="M372">
-        <v>37</v>
-      </c>
-      <c r="N372">
-        <v>7</v>
-      </c>
-      <c r="O372">
-        <v>1018</v>
-      </c>
-      <c r="P372">
-        <v>1017</v>
-      </c>
-      <c r="Q372">
-        <v>1012</v>
-      </c>
-      <c r="R372">
-        <v>11</v>
-      </c>
-      <c r="S372">
-        <v>10</v>
-      </c>
-      <c r="T372">
-        <v>10</v>
-      </c>
-      <c r="U372">
-        <v>19</v>
-      </c>
-      <c r="V372">
-        <v>6</v>
-      </c>
-      <c r="X372">
-        <v>0</v>
-      </c>
-      <c r="Y372">
-        <v>6</v>
-      </c>
-      <c r="AA372">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="373" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F373">
-        <v>26</v>
-      </c>
-      <c r="G373">
-        <v>19</v>
-      </c>
-      <c r="H373">
-        <v>13</v>
-      </c>
-      <c r="I373">
-        <v>7</v>
-      </c>
-      <c r="J373">
-        <v>2</v>
-      </c>
-      <c r="K373">
-        <v>-5</v>
-      </c>
-      <c r="L373">
-        <v>51</v>
-      </c>
-      <c r="M373">
-        <v>34</v>
-      </c>
-      <c r="N373">
-        <v>10</v>
-      </c>
-      <c r="O373">
-        <v>1015</v>
-      </c>
-      <c r="P373">
-        <v>1012</v>
-      </c>
-      <c r="Q373">
-        <v>1006</v>
-      </c>
-      <c r="R373">
-        <v>11</v>
-      </c>
-      <c r="S373">
-        <v>10</v>
-      </c>
-      <c r="T373">
-        <v>10</v>
-      </c>
-      <c r="U373">
-        <v>14</v>
-      </c>
-      <c r="V373">
-        <v>10</v>
-      </c>
-      <c r="W373">
-        <v>29</v>
-      </c>
-      <c r="X373">
-        <v>0</v>
-      </c>
-      <c r="Y373">
-        <v>6</v>
-      </c>
-      <c r="AA373">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="374" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F374">
-        <v>25</v>
-      </c>
-      <c r="G374">
-        <v>19</v>
-      </c>
-      <c r="H374">
-        <v>13</v>
-      </c>
-      <c r="I374">
-        <v>9</v>
-      </c>
-      <c r="J374">
-        <v>6</v>
-      </c>
-      <c r="K374">
-        <v>3</v>
-      </c>
-      <c r="L374">
-        <v>77</v>
-      </c>
-      <c r="M374">
-        <v>44</v>
-      </c>
-      <c r="N374">
-        <v>15</v>
-      </c>
-      <c r="O374">
-        <v>1014</v>
-      </c>
-      <c r="P374">
-        <v>1009</v>
-      </c>
-      <c r="Q374">
-        <v>1003</v>
-      </c>
-      <c r="R374">
-        <v>11</v>
-      </c>
-      <c r="S374">
-        <v>10</v>
-      </c>
-      <c r="T374">
-        <v>8</v>
-      </c>
-      <c r="U374">
-        <v>37</v>
-      </c>
-      <c r="V374">
-        <v>13</v>
-      </c>
-      <c r="X374">
-        <v>0</v>
-      </c>
-      <c r="Y374">
-        <v>5</v>
-      </c>
-      <c r="Z374" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA374">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="375" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F375">
-        <v>29</v>
-      </c>
-      <c r="G375">
-        <v>19</v>
-      </c>
-      <c r="H375">
-        <v>10</v>
-      </c>
-      <c r="I375">
-        <v>12</v>
-      </c>
-      <c r="J375">
-        <v>6</v>
-      </c>
-      <c r="K375">
-        <v>-3</v>
-      </c>
-      <c r="L375">
-        <v>94</v>
-      </c>
-      <c r="M375">
-        <v>51</v>
-      </c>
-      <c r="N375">
-        <v>7</v>
-      </c>
-      <c r="O375">
-        <v>1014</v>
-      </c>
-      <c r="P375">
-        <v>1009</v>
-      </c>
-      <c r="Q375">
-        <v>1001</v>
-      </c>
-      <c r="R375">
-        <v>11</v>
-      </c>
-      <c r="S375">
-        <v>8</v>
-      </c>
-      <c r="T375">
-        <v>3</v>
-      </c>
-      <c r="U375">
-        <v>34</v>
-      </c>
-      <c r="V375">
-        <v>13</v>
-      </c>
-      <c r="W375">
-        <v>37</v>
-      </c>
-      <c r="X375">
-        <v>0</v>
-      </c>
-      <c r="Y375">
-        <v>3</v>
-      </c>
-      <c r="Z375" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA375">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="376" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F376">
-        <v>22</v>
-      </c>
-      <c r="G376">
-        <v>16</v>
-      </c>
-      <c r="H376">
-        <v>10</v>
-      </c>
-      <c r="I376">
-        <v>11</v>
-      </c>
-      <c r="J376">
-        <v>7</v>
-      </c>
-      <c r="K376">
-        <v>-2</v>
-      </c>
-      <c r="L376">
-        <v>94</v>
-      </c>
-      <c r="M376">
-        <v>67</v>
-      </c>
-      <c r="N376">
-        <v>32</v>
-      </c>
-      <c r="O376">
-        <v>1016</v>
-      </c>
-      <c r="P376">
-        <v>1011</v>
-      </c>
-      <c r="Q376">
-        <v>1004</v>
-      </c>
-      <c r="R376">
-        <v>11</v>
-      </c>
-      <c r="S376">
-        <v>10</v>
-      </c>
-      <c r="T376">
-        <v>2</v>
-      </c>
-      <c r="U376">
-        <v>40</v>
-      </c>
-      <c r="V376">
-        <v>16</v>
-      </c>
-      <c r="X376">
-        <v>3.05</v>
-      </c>
-      <c r="Y376">
-        <v>4</v>
-      </c>
-      <c r="Z376" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA376">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="377" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F377">
-        <v>17</v>
-      </c>
-      <c r="G377">
-        <v>12</v>
-      </c>
-      <c r="H377">
-        <v>7</v>
-      </c>
-      <c r="I377">
-        <v>7</v>
-      </c>
-      <c r="J377">
-        <v>2</v>
-      </c>
-      <c r="K377">
-        <v>-2</v>
-      </c>
-      <c r="L377">
-        <v>82</v>
-      </c>
-      <c r="M377">
-        <v>55</v>
-      </c>
-      <c r="N377">
-        <v>27</v>
-      </c>
-      <c r="O377">
-        <v>1019</v>
-      </c>
-      <c r="P377">
-        <v>1017</v>
-      </c>
-      <c r="Q377">
-        <v>1014</v>
-      </c>
-      <c r="R377">
-        <v>19</v>
-      </c>
-      <c r="S377">
-        <v>11</v>
-      </c>
-      <c r="T377">
-        <v>10</v>
-      </c>
-      <c r="U377">
-        <v>40</v>
-      </c>
-      <c r="V377">
-        <v>24</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>2</v>
-      </c>
-      <c r="AA377">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="378" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F378">
-        <v>4</v>
-      </c>
-      <c r="G378">
-        <v>3</v>
-      </c>
-      <c r="H378">
-        <v>2</v>
-      </c>
-      <c r="I378">
-        <v>7</v>
-      </c>
-      <c r="J378">
-        <v>5</v>
-      </c>
-      <c r="K378">
-        <v>2</v>
-      </c>
-      <c r="L378">
-        <v>100</v>
-      </c>
-      <c r="M378">
-        <v>93</v>
-      </c>
-      <c r="N378">
-        <v>73</v>
-      </c>
-      <c r="O378">
-        <v>1025</v>
-      </c>
-      <c r="P378">
-        <v>1018</v>
-      </c>
-      <c r="Q378">
-        <v>1014</v>
-      </c>
-      <c r="R378">
-        <v>10</v>
-      </c>
-      <c r="S378">
-        <v>5</v>
-      </c>
-      <c r="T378">
-        <v>2</v>
-      </c>
-      <c r="U378">
-        <v>26</v>
-      </c>
-      <c r="V378">
-        <v>16</v>
-      </c>
-      <c r="X378">
-        <v>13.97</v>
-      </c>
-      <c r="Y378">
-        <v>8</v>
-      </c>
-      <c r="Z378" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA378">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="379" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F379">
-        <v>5</v>
-      </c>
-      <c r="G379">
-        <v>3</v>
-      </c>
-      <c r="H379">
-        <v>2</v>
-      </c>
-      <c r="I379">
-        <v>3</v>
-      </c>
-      <c r="J379">
-        <v>3</v>
-      </c>
-      <c r="K379">
-        <v>2</v>
-      </c>
-      <c r="L379">
-        <v>100</v>
-      </c>
-      <c r="M379">
-        <v>95</v>
-      </c>
-      <c r="N379">
-        <v>82</v>
-      </c>
-      <c r="O379">
-        <v>1025</v>
-      </c>
-      <c r="P379">
-        <v>1021</v>
-      </c>
-      <c r="Q379">
-        <v>1019</v>
-      </c>
-      <c r="R379">
-        <v>14</v>
-      </c>
-      <c r="S379">
-        <v>7</v>
-      </c>
-      <c r="T379">
-        <v>2</v>
-      </c>
-      <c r="U379">
-        <v>19</v>
-      </c>
-      <c r="V379">
-        <v>11</v>
-      </c>
-      <c r="X379">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="Y379">
-        <v>8</v>
-      </c>
-      <c r="Z379" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA379">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="380" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F380">
-        <v>17</v>
-      </c>
-      <c r="G380">
-        <v>9</v>
-      </c>
-      <c r="H380">
-        <v>2</v>
-      </c>
-      <c r="I380">
-        <v>5</v>
-      </c>
-      <c r="J380">
-        <v>2</v>
-      </c>
-      <c r="K380">
-        <v>-4</v>
-      </c>
-      <c r="L380">
-        <v>100</v>
-      </c>
-      <c r="M380">
-        <v>68</v>
-      </c>
-      <c r="N380">
-        <v>25</v>
-      </c>
-      <c r="O380">
-        <v>1021</v>
-      </c>
-      <c r="P380">
-        <v>1017</v>
-      </c>
-      <c r="Q380">
-        <v>1016</v>
-      </c>
-      <c r="R380">
-        <v>14</v>
-      </c>
-      <c r="S380">
-        <v>7</v>
-      </c>
-      <c r="T380">
-        <v>2</v>
-      </c>
-      <c r="U380">
-        <v>29</v>
-      </c>
-      <c r="V380">
-        <v>8</v>
-      </c>
-      <c r="X380">
-        <v>0.25</v>
-      </c>
-      <c r="Y380">
-        <v>4</v>
-      </c>
-      <c r="AA380">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="381" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F381">
-        <v>18</v>
-      </c>
-      <c r="G381">
-        <v>12</v>
-      </c>
-      <c r="H381">
-        <v>5</v>
-      </c>
-      <c r="I381">
-        <v>6</v>
-      </c>
-      <c r="J381">
-        <v>3</v>
-      </c>
-      <c r="K381">
-        <v>0</v>
-      </c>
-      <c r="L381">
-        <v>87</v>
-      </c>
-      <c r="M381">
-        <v>62</v>
-      </c>
-      <c r="N381">
-        <v>20</v>
-      </c>
-      <c r="O381">
-        <v>1018</v>
-      </c>
-      <c r="P381">
-        <v>1016</v>
-      </c>
-      <c r="Q381">
-        <v>1012</v>
-      </c>
-      <c r="R381">
-        <v>14</v>
-      </c>
-      <c r="S381">
-        <v>10</v>
-      </c>
-      <c r="T381">
-        <v>10</v>
-      </c>
-      <c r="U381">
-        <v>29</v>
-      </c>
-      <c r="V381">
-        <v>10</v>
-      </c>
-      <c r="X381">
-        <v>0</v>
-      </c>
-      <c r="Y381">
-        <v>5</v>
-      </c>
-      <c r="AA381">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="382" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F382">
-        <v>12</v>
-      </c>
-      <c r="G382">
-        <v>8</v>
-      </c>
-      <c r="H382">
-        <v>3</v>
-      </c>
-      <c r="I382">
-        <v>7</v>
-      </c>
-      <c r="J382">
-        <v>5</v>
-      </c>
-      <c r="K382">
-        <v>3</v>
-      </c>
-      <c r="L382">
-        <v>100</v>
-      </c>
-      <c r="M382">
-        <v>90</v>
-      </c>
-      <c r="N382">
-        <v>57</v>
-      </c>
-      <c r="O382">
-        <v>1021</v>
-      </c>
-      <c r="P382">
-        <v>1018</v>
-      </c>
-      <c r="Q382">
-        <v>1016</v>
-      </c>
-      <c r="R382">
-        <v>10</v>
-      </c>
-      <c r="S382">
-        <v>6</v>
-      </c>
-      <c r="T382">
-        <v>2</v>
-      </c>
-      <c r="U382">
-        <v>23</v>
-      </c>
-      <c r="V382">
-        <v>14</v>
-      </c>
-      <c r="X382">
-        <v>0.25</v>
-      </c>
-      <c r="Y382">
-        <v>7</v>
-      </c>
-      <c r="Z382" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA382">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="383" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F383">
-        <v>20</v>
-      </c>
-      <c r="G383">
-        <v>12</v>
-      </c>
-      <c r="H383">
-        <v>4</v>
-      </c>
-      <c r="I383">
-        <v>7</v>
-      </c>
-      <c r="J383">
-        <v>5</v>
-      </c>
-      <c r="K383">
-        <v>3</v>
-      </c>
-      <c r="L383">
-        <v>100</v>
-      </c>
-      <c r="M383">
-        <v>65</v>
-      </c>
-      <c r="N383">
-        <v>22</v>
-      </c>
-      <c r="O383">
-        <v>1018</v>
-      </c>
-      <c r="P383">
-        <v>1016</v>
-      </c>
-      <c r="Q383">
-        <v>1014</v>
-      </c>
-      <c r="R383">
-        <v>14</v>
-      </c>
-      <c r="S383">
-        <v>7</v>
-      </c>
-      <c r="T383">
-        <v>2</v>
-      </c>
-      <c r="U383">
-        <v>29</v>
-      </c>
-      <c r="V383">
-        <v>10</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="Y383">
-        <v>4</v>
-      </c>
-      <c r="Z383" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA383">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="384" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F384">
-        <v>19</v>
-      </c>
-      <c r="G384">
-        <v>13</v>
-      </c>
-      <c r="H384">
-        <v>7</v>
-      </c>
-      <c r="I384">
-        <v>8</v>
-      </c>
-      <c r="J384">
-        <v>7</v>
-      </c>
-      <c r="K384">
-        <v>5</v>
-      </c>
-      <c r="L384">
-        <v>87</v>
-      </c>
-      <c r="M384">
-        <v>61</v>
-      </c>
-      <c r="N384">
-        <v>34</v>
-      </c>
-      <c r="O384">
-        <v>1018</v>
-      </c>
-      <c r="P384">
-        <v>1016</v>
-      </c>
-      <c r="Q384">
-        <v>1013</v>
-      </c>
-      <c r="R384">
-        <v>11</v>
-      </c>
-      <c r="S384">
-        <v>10</v>
-      </c>
-      <c r="T384">
-        <v>10</v>
-      </c>
-      <c r="U384">
-        <v>29</v>
-      </c>
-      <c r="V384">
-        <v>8</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>3</v>
-      </c>
-      <c r="AA384">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="385" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F385">
-        <v>21</v>
-      </c>
-      <c r="G385">
-        <v>14</v>
-      </c>
-      <c r="H385">
-        <v>9</v>
-      </c>
-      <c r="I385">
-        <v>9</v>
-      </c>
-      <c r="J385">
-        <v>8</v>
-      </c>
-      <c r="K385">
-        <v>6</v>
-      </c>
-      <c r="L385">
-        <v>93</v>
-      </c>
-      <c r="M385">
-        <v>69</v>
-      </c>
-      <c r="N385">
-        <v>30</v>
-      </c>
-      <c r="O385">
-        <v>1021</v>
-      </c>
-      <c r="P385">
-        <v>1018</v>
-      </c>
-      <c r="Q385">
-        <v>1014</v>
-      </c>
-      <c r="R385">
-        <v>14</v>
-      </c>
-      <c r="S385">
-        <v>10</v>
-      </c>
-      <c r="T385">
-        <v>3</v>
-      </c>
-      <c r="U385">
-        <v>26</v>
-      </c>
-      <c r="V385">
-        <v>11</v>
-      </c>
-      <c r="X385">
-        <v>7.11</v>
-      </c>
-      <c r="Y385">
-        <v>3</v>
-      </c>
-      <c r="Z385" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA385">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="386" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F386">
-        <v>19</v>
-      </c>
-      <c r="G386">
-        <v>14</v>
-      </c>
-      <c r="H386">
-        <v>9</v>
-      </c>
-      <c r="I386">
-        <v>8</v>
-      </c>
-      <c r="J386">
-        <v>6</v>
-      </c>
-      <c r="K386">
-        <v>4</v>
-      </c>
-      <c r="L386">
-        <v>82</v>
-      </c>
-      <c r="M386">
-        <v>58</v>
-      </c>
-      <c r="N386">
-        <v>31</v>
-      </c>
-      <c r="O386">
-        <v>1022</v>
-      </c>
-      <c r="P386">
-        <v>1020</v>
-      </c>
-      <c r="Q386">
-        <v>1016</v>
-      </c>
-      <c r="R386">
-        <v>14</v>
-      </c>
-      <c r="S386">
-        <v>10</v>
-      </c>
-      <c r="T386">
-        <v>10</v>
-      </c>
-      <c r="U386">
-        <v>26</v>
-      </c>
-      <c r="V386">
-        <v>11</v>
-      </c>
-      <c r="X386">
-        <v>0</v>
-      </c>
-      <c r="Y386">
-        <v>3</v>
-      </c>
-      <c r="AA386">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="387" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F387">
-        <v>15</v>
-      </c>
-      <c r="G387">
-        <v>12</v>
-      </c>
-      <c r="H387">
-        <v>9</v>
-      </c>
-      <c r="I387">
-        <v>10</v>
-      </c>
-      <c r="J387">
-        <v>8</v>
-      </c>
-      <c r="K387">
-        <v>6</v>
-      </c>
-      <c r="L387">
-        <v>94</v>
-      </c>
-      <c r="M387">
-        <v>74</v>
-      </c>
-      <c r="N387">
-        <v>58</v>
-      </c>
-      <c r="O387">
-        <v>1019</v>
-      </c>
-      <c r="P387">
-        <v>1018</v>
-      </c>
-      <c r="Q387">
-        <v>1014</v>
-      </c>
-      <c r="R387">
-        <v>14</v>
-      </c>
-      <c r="S387">
-        <v>10</v>
-      </c>
-      <c r="T387">
-        <v>2</v>
-      </c>
-      <c r="U387">
-        <v>34</v>
-      </c>
-      <c r="V387">
-        <v>14</v>
-      </c>
-      <c r="X387">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="Y387">
-        <v>5</v>
-      </c>
-      <c r="Z387" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA387">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="388" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F388">
-        <v>18</v>
-      </c>
-      <c r="G388">
-        <v>13</v>
-      </c>
-      <c r="H388">
-        <v>8</v>
-      </c>
-      <c r="I388">
-        <v>8</v>
-      </c>
-      <c r="J388">
-        <v>7</v>
-      </c>
-      <c r="K388">
-        <v>6</v>
-      </c>
-      <c r="L388">
-        <v>100</v>
-      </c>
-      <c r="M388">
-        <v>74</v>
-      </c>
-      <c r="N388">
-        <v>45</v>
-      </c>
-      <c r="O388">
-        <v>1019</v>
-      </c>
-      <c r="P388">
-        <v>1017</v>
-      </c>
-      <c r="Q388">
-        <v>1014</v>
-      </c>
-      <c r="R388">
-        <v>11</v>
-      </c>
-      <c r="S388">
-        <v>7</v>
-      </c>
-      <c r="T388">
-        <v>2</v>
-      </c>
-      <c r="U388">
-        <v>37</v>
-      </c>
-      <c r="V388">
-        <v>14</v>
-      </c>
-      <c r="X388">
-        <v>0</v>
-      </c>
-      <c r="Y388">
-        <v>3</v>
-      </c>
-      <c r="AA388">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -29893,7 +28436,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29905,7 +28448,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
